--- a/biology/Histoire de la zoologie et de la botanique/August_Specht/August_Specht.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/August_Specht/August_Specht.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">August Specht est un peintre animalier allemand, né le 1er août 1849 à Lauffen sur Neckar et décédé en 1923 à Stuttgart.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Élève de Heinrich Laepple et d'Albert Kappis, il publie en 1898 un « Album animalier Specht » composé de plusieurs planches accompagnées de descriptions sous forme poétique. Ses frères sont le graveur sur bois Carl Gottlob Specht et l'illustrateur animalier Friedrich Specht.
 Notices d'autorité : VIAF ISNI LCCN GND Italie Pays-Bas Pologne WorldCat 
